--- a/Tests/Validation/Wheat/data/FAR TAS W21-03-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR TAS W21-03-1.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -551,7 +552,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +585,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -617,7 +618,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -650,7 +651,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -683,7 +684,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -720,7 +721,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44579</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -757,7 +758,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -810,7 +811,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -843,7 +844,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -876,7 +877,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -909,7 +910,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -942,7 +943,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -979,7 +980,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -1032,7 +1033,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1065,7 +1066,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1098,7 +1099,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1131,7 +1132,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1164,7 +1165,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1201,7 +1202,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44579</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -1238,7 +1239,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -1291,7 +1292,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1324,7 +1325,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1357,7 +1358,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1390,7 +1391,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1423,7 +1424,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -1460,7 +1461,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1513,7 +1514,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1546,7 +1547,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1579,7 +1580,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1612,7 +1613,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1645,7 +1646,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1682,7 +1683,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44579</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1719,7 +1720,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1772,7 +1773,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1805,7 +1806,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1838,7 +1839,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1871,7 +1872,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1904,7 +1905,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -1941,7 +1942,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44579</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -1978,7 +1979,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2031,7 +2032,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2064,7 +2065,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2097,7 +2098,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2130,7 +2131,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2163,7 +2164,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -2200,7 +2201,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44579</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -2237,7 +2238,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2290,7 +2291,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44347</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2323,7 +2324,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2356,7 +2357,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2389,7 +2390,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2422,7 +2423,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2455,7 +2456,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2492,7 +2493,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2545,7 +2546,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44347</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2578,7 +2579,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2611,7 +2612,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2644,7 +2645,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2677,7 +2678,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2710,7 +2711,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2747,7 +2748,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -2800,7 +2801,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44347</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2833,7 +2834,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2866,7 +2867,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2899,7 +2900,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2932,7 +2933,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2965,7 +2966,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -3002,7 +3003,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -3055,7 +3056,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44347</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3088,7 +3089,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3121,7 +3122,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3154,7 +3155,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3187,7 +3188,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3220,7 +3221,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C75" t="inlineStr">
@@ -3257,7 +3258,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -3310,7 +3311,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44347</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3343,7 +3344,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3376,7 +3377,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3409,7 +3410,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3442,7 +3443,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3475,7 +3476,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C82" t="inlineStr">
@@ -3512,7 +3513,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -3565,7 +3566,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44347</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3598,7 +3599,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3631,7 +3632,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3664,7 +3665,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3697,7 +3698,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3730,7 +3731,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -3767,7 +3768,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -3820,7 +3821,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44347</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3853,7 +3854,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3886,7 +3887,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3919,7 +3920,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3952,7 +3953,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3985,7 +3986,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -4022,7 +4023,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -4075,7 +4076,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4108,7 +4109,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44434</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4141,7 +4142,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4174,7 +4175,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4207,7 +4208,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4240,7 +4241,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -4277,7 +4278,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -4330,7 +4331,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4363,7 +4364,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4396,7 +4397,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4429,7 +4430,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4462,7 +4463,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4495,7 +4496,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4532,7 +4533,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -4585,7 +4586,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4618,7 +4619,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>44434</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4651,7 +4652,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4684,7 +4685,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4717,7 +4718,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4750,7 +4751,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C117" t="inlineStr">
@@ -4787,7 +4788,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -4840,7 +4841,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4873,7 +4874,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -4906,7 +4907,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -4939,7 +4940,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -4972,7 +4973,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5005,7 +5006,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -5042,7 +5043,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -5095,7 +5096,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5128,7 +5129,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>44434</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5161,7 +5162,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5194,7 +5195,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5227,7 +5228,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5260,7 +5261,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C131" t="inlineStr">
@@ -5297,7 +5298,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -5350,7 +5351,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5383,7 +5384,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>44434</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5416,7 +5417,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5449,7 +5450,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5482,7 +5483,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5515,7 +5516,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C138" t="inlineStr">
@@ -5552,7 +5553,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C139" t="inlineStr">
@@ -5605,7 +5606,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5638,7 +5639,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>44434</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5671,7 +5672,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5704,7 +5705,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5737,7 +5738,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5770,7 +5771,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -5807,7 +5808,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C146" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR TAS W21-03-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR TAS W21-03-1.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +456,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -552,7 +551,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -585,7 +584,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -618,7 +617,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -651,7 +650,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -684,7 +683,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -721,7 +720,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>44579</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -758,7 +757,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -811,7 +810,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -844,7 +843,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -877,7 +876,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -910,7 +909,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -943,7 +942,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -980,7 +979,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -1033,7 +1032,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1066,7 +1065,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1099,7 +1098,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1132,7 +1131,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1165,7 +1164,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1202,7 +1201,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>44579</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -1239,7 +1238,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -1292,7 +1291,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1325,7 +1324,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1358,7 +1357,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1391,7 +1390,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1424,7 +1423,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -1461,7 +1460,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1514,7 +1513,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1547,7 +1546,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1580,7 +1579,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1613,7 +1612,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1646,7 +1645,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1683,7 +1682,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>44579</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1720,7 +1719,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1773,7 +1772,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1806,7 +1805,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1839,7 +1838,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1872,7 +1871,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1905,7 +1904,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -1942,7 +1941,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>44579</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -1979,7 +1978,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2032,7 +2031,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2065,7 +2064,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2098,7 +2097,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2131,7 +2130,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2164,7 +2163,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -2201,7 +2200,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>44579</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -2238,7 +2237,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2291,7 +2290,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>44347</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2324,7 +2323,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2357,7 +2356,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2390,7 +2389,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2423,7 +2422,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2456,7 +2455,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2493,7 +2492,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2546,7 +2545,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>44347</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2579,7 +2578,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2612,7 +2611,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2645,7 +2644,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2678,7 +2677,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2711,7 +2710,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2748,7 +2747,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -2801,7 +2800,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>44347</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2834,7 +2833,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2867,7 +2866,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2900,7 +2899,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2933,7 +2932,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2966,7 +2965,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -3003,7 +3002,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -3056,7 +3055,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>44347</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3089,7 +3088,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3122,7 +3121,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3155,7 +3154,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3188,7 +3187,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3221,7 +3220,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C75" t="inlineStr">
@@ -3258,7 +3257,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -3311,7 +3310,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>44347</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3344,7 +3343,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3377,7 +3376,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3410,7 +3409,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3443,7 +3442,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3476,7 +3475,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C82" t="inlineStr">
@@ -3513,7 +3512,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -3566,7 +3565,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>44347</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3599,7 +3598,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3632,7 +3631,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3665,7 +3664,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3698,7 +3697,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3731,7 +3730,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -3768,7 +3767,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -3821,7 +3820,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>44347</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3854,7 +3853,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3887,7 +3886,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3920,7 +3919,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3953,7 +3952,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3986,7 +3985,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -4023,7 +4022,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -4076,7 +4075,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4109,7 +4108,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>44434</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4142,7 +4141,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4175,7 +4174,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4208,7 +4207,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4241,7 +4240,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -4278,7 +4277,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -4331,7 +4330,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4364,7 +4363,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4397,7 +4396,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4430,7 +4429,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4463,7 +4462,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4496,7 +4495,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4533,7 +4532,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -4586,7 +4585,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4619,7 +4618,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>44434</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4652,7 +4651,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4685,7 +4684,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4718,7 +4717,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4751,7 +4750,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C117" t="inlineStr">
@@ -4788,7 +4787,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -4841,7 +4840,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4874,7 +4873,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -4907,7 +4906,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -4940,7 +4939,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -4973,7 +4972,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5006,7 +5005,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -5043,7 +5042,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -5096,7 +5095,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5129,7 +5128,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="3" t="n">
         <v>44434</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5162,7 +5161,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5195,7 +5194,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5228,7 +5227,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5261,7 +5260,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C131" t="inlineStr">
@@ -5298,7 +5297,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -5351,7 +5350,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5384,7 +5383,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="3" t="n">
         <v>44434</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5417,7 +5416,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5450,7 +5449,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5483,7 +5482,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5516,7 +5515,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C138" t="inlineStr">
@@ -5553,7 +5552,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C139" t="inlineStr">
@@ -5606,7 +5605,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5639,7 +5638,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="3" t="n">
         <v>44434</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5672,7 +5671,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5705,7 +5704,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="3" t="n">
         <v>44512</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5738,7 +5737,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="3" t="n">
         <v>44543</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5771,7 +5770,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="3" t="n">
         <v>44565</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -5808,7 +5807,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="3" t="n">
         <v>44581</v>
       </c>
       <c r="C146" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR TAS W21-03-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR TAS W21-03-1.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -551,7 +552,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +585,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -617,7 +618,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -650,7 +651,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -683,7 +684,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -720,7 +721,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44579</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -757,7 +758,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -810,7 +811,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -843,7 +844,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -876,7 +877,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -909,7 +910,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -942,7 +943,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -979,7 +980,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -1032,7 +1033,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1065,7 +1066,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1098,7 +1099,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1131,7 +1132,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1164,7 +1165,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1201,7 +1202,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44579</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -1238,7 +1239,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -1291,7 +1292,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1324,7 +1325,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1357,7 +1358,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1390,7 +1391,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1423,7 +1424,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -1460,7 +1461,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -1513,7 +1514,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1546,7 +1547,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1579,7 +1580,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1612,7 +1613,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1645,7 +1646,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1682,7 +1683,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44579</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1719,7 +1720,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvCesario</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1772,7 +1773,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1805,7 +1806,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1838,7 +1839,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1871,7 +1872,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1904,7 +1905,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -1941,7 +1942,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44579</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -1978,7 +1979,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvTabasco</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2031,7 +2032,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2064,7 +2065,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2097,7 +2098,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2130,7 +2131,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2163,7 +2164,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -2200,7 +2201,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44579</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -2237,7 +2238,7 @@
           <t>FAR TAS W21-03-1MgmtHigh InputCvBig Red</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2290,7 +2291,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44347</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2323,7 +2324,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2356,7 +2357,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2389,7 +2390,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2422,7 +2423,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2455,7 +2456,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2492,7 +2493,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2545,7 +2546,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44347</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2578,7 +2579,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2611,7 +2612,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2644,7 +2645,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2677,7 +2678,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2710,7 +2711,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2747,7 +2748,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -2800,7 +2801,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44347</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2833,7 +2834,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2866,7 +2867,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2899,7 +2900,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2932,7 +2933,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2965,7 +2966,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -3002,7 +3003,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvBig Red</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -3055,7 +3056,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44347</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3088,7 +3089,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3121,7 +3122,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3154,7 +3155,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3187,7 +3188,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3220,7 +3221,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C75" t="inlineStr">
@@ -3257,7 +3258,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvCesario</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -3310,7 +3311,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44347</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3343,7 +3344,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3376,7 +3377,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3409,7 +3410,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3442,7 +3443,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3475,7 +3476,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C82" t="inlineStr">
@@ -3512,7 +3513,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -3565,7 +3566,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44347</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3598,7 +3599,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3631,7 +3632,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3664,7 +3665,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3697,7 +3698,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3730,7 +3731,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -3767,7 +3768,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -3820,7 +3821,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44347</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3853,7 +3854,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3886,7 +3887,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3919,7 +3920,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3952,7 +3953,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3985,7 +3986,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -4022,7 +4023,7 @@
           <t>FAR TAS W21-03-1MgmtStandardCvTabasco</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -4075,7 +4076,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4108,7 +4109,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44434</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4141,7 +4142,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4174,7 +4175,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4207,7 +4208,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4240,7 +4241,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -4277,7 +4278,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvBig Red</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -4330,7 +4331,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4363,7 +4364,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4396,7 +4397,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4429,7 +4430,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4462,7 +4463,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4495,7 +4496,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4532,7 +4533,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -4585,7 +4586,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4618,7 +4619,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>44434</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4651,7 +4652,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4684,7 +4685,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4717,7 +4718,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4750,7 +4751,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C117" t="inlineStr">
@@ -4787,7 +4788,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -4840,7 +4841,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>44399</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4873,7 +4874,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -4906,7 +4907,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -4939,7 +4940,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -4972,7 +4973,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5005,7 +5006,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -5042,7 +5043,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -5095,7 +5096,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5128,7 +5129,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>44434</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5161,7 +5162,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5194,7 +5195,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5227,7 +5228,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5260,7 +5261,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C131" t="inlineStr">
@@ -5297,7 +5298,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvTabasco</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -5350,7 +5351,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5383,7 +5384,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>44434</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5416,7 +5417,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5449,7 +5450,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5482,7 +5483,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5515,7 +5516,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C138" t="inlineStr">
@@ -5552,7 +5553,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C139" t="inlineStr">
@@ -5605,7 +5606,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>44404</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5638,7 +5639,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>44434</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5671,7 +5672,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>44469</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5704,7 +5705,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>44512</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5737,7 +5738,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>44543</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5770,7 +5771,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>44565</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -5807,7 +5808,7 @@
           <t>FAR TAS W21-03-1MgmtGrazedCvCesario</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>44581</v>
       </c>
       <c r="C146" t="inlineStr">
